--- a/Code/Results/Cases/Case_5_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_108/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.211372508800991</v>
+        <v>1.357478060742892</v>
       </c>
       <c r="C2">
-        <v>0.3102506154114195</v>
+        <v>0.1530760410253293</v>
       </c>
       <c r="D2">
-        <v>0.0497394773355353</v>
+        <v>0.1194354720369049</v>
       </c>
       <c r="E2">
-        <v>0.04352366513018335</v>
+        <v>0.1245758532212635</v>
       </c>
       <c r="F2">
-        <v>0.8690219586562833</v>
+        <v>1.752131314218971</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06311680066392444</v>
+        <v>0.1612990383297617</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1707977907192841</v>
+        <v>0.2744277187221442</v>
       </c>
       <c r="M2">
-        <v>0.3916617882977178</v>
+        <v>0.3184569435170275</v>
       </c>
       <c r="N2">
-        <v>0.8997916637771795</v>
+        <v>1.721821525170089</v>
       </c>
       <c r="O2">
-        <v>2.314597014460134</v>
+        <v>4.575683049327665</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.929186241949679</v>
+        <v>1.279850709966922</v>
       </c>
       <c r="C3">
-        <v>0.280605536377152</v>
+        <v>0.1432450312874352</v>
       </c>
       <c r="D3">
-        <v>0.04747327911668719</v>
+        <v>0.1192628499365505</v>
       </c>
       <c r="E3">
-        <v>0.04434637060458746</v>
+        <v>0.1252683450860923</v>
       </c>
       <c r="F3">
-        <v>0.8378340591689692</v>
+        <v>1.756729400771889</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06490116432984339</v>
+        <v>0.1622816523651021</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1560239211480123</v>
+        <v>0.2715942972574297</v>
       </c>
       <c r="M3">
-        <v>0.3441052128441697</v>
+        <v>0.3060752846758632</v>
       </c>
       <c r="N3">
-        <v>0.9367560462040743</v>
+        <v>1.738201905344958</v>
       </c>
       <c r="O3">
-        <v>2.232836678411104</v>
+        <v>4.589442455110543</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.756636873329597</v>
+        <v>1.232583085629301</v>
       </c>
       <c r="C4">
-        <v>0.2623688834918454</v>
+        <v>0.137161272822425</v>
       </c>
       <c r="D4">
-        <v>0.04611477563690514</v>
+        <v>0.1191855449300228</v>
       </c>
       <c r="E4">
-        <v>0.04488688996455226</v>
+        <v>0.1257211810430059</v>
       </c>
       <c r="F4">
-        <v>0.820229876946506</v>
+        <v>1.760423353963681</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06604100327142692</v>
+        <v>0.1629171745431517</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1470750562751633</v>
+        <v>0.2699455850557086</v>
       </c>
       <c r="M4">
-        <v>0.315073130762265</v>
+        <v>0.2985791830747075</v>
       </c>
       <c r="N4">
-        <v>0.9606035388183862</v>
+        <v>1.748849901457898</v>
       </c>
       <c r="O4">
-        <v>2.187110376648235</v>
+        <v>4.600302111763853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.686474250383327</v>
+        <v>1.213422029167134</v>
       </c>
       <c r="C5">
-        <v>0.254926661784836</v>
+        <v>0.134670275636779</v>
       </c>
       <c r="D5">
-        <v>0.04556919254304503</v>
+        <v>0.1191612859695432</v>
       </c>
       <c r="E5">
-        <v>0.04511595236539234</v>
+        <v>0.1259126794800283</v>
       </c>
       <c r="F5">
-        <v>0.8134263779657473</v>
+        <v>1.762147729475615</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06651655635125131</v>
+        <v>0.1631842639412078</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.143457249101246</v>
+        <v>0.2692967146944909</v>
       </c>
       <c r="M5">
-        <v>0.3032797438000188</v>
+        <v>0.2955514316987973</v>
       </c>
       <c r="N5">
-        <v>0.9706041465201665</v>
+        <v>1.753337581229914</v>
       </c>
       <c r="O5">
-        <v>2.169546648136844</v>
+        <v>4.605333945373928</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.674832262054395</v>
+        <v>1.21024648288298</v>
       </c>
       <c r="C6">
-        <v>0.2536901888865515</v>
+        <v>0.1342559373998284</v>
       </c>
       <c r="D6">
-        <v>0.04547907562732689</v>
+        <v>0.1191576961644358</v>
       </c>
       <c r="E6">
-        <v>0.04515451646651014</v>
+        <v>0.1259448986474507</v>
       </c>
       <c r="F6">
-        <v>0.8123185140962548</v>
+        <v>1.762447294712246</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06659618774035847</v>
+        <v>0.1632291040967639</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1428582103281073</v>
+        <v>0.269190362109299</v>
       </c>
       <c r="M6">
-        <v>0.3013235864132326</v>
+        <v>0.2950503120599066</v>
       </c>
       <c r="N6">
-        <v>0.9722816101199463</v>
+        <v>1.75409173059937</v>
       </c>
       <c r="O6">
-        <v>2.166693276288782</v>
+        <v>4.606206107380871</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.755690052077142</v>
+        <v>1.232324262673529</v>
       </c>
       <c r="C7">
-        <v>0.2622685606726662</v>
+        <v>0.1371277260433175</v>
       </c>
       <c r="D7">
-        <v>0.04610738559006933</v>
+        <v>0.1191851883959103</v>
       </c>
       <c r="E7">
-        <v>0.04488994369150889</v>
+        <v>0.1257237354430485</v>
       </c>
       <c r="F7">
-        <v>0.820136646497204</v>
+        <v>1.76044572238289</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06604737204853972</v>
+        <v>0.1629207437530522</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1470261504907313</v>
+        <v>0.2699367409234128</v>
       </c>
       <c r="M7">
-        <v>0.3149139356270609</v>
+        <v>0.2985382402327303</v>
       </c>
       <c r="N7">
-        <v>0.960737275314667</v>
+        <v>1.74890982235754</v>
       </c>
       <c r="O7">
-        <v>2.186869244089053</v>
+        <v>4.60036751728677</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.11390968970403</v>
+        <v>1.330630759738483</v>
       </c>
       <c r="C8">
-        <v>0.3000349055955382</v>
+        <v>0.1496962338598564</v>
       </c>
       <c r="D8">
-        <v>0.04895108633861867</v>
+        <v>0.1193700161124092</v>
       </c>
       <c r="E8">
-        <v>0.04379993120742176</v>
+        <v>0.1248088949287585</v>
       </c>
       <c r="F8">
-        <v>0.8579363753168749</v>
+        <v>1.753536082980446</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06372283038103266</v>
+        <v>0.1616311702708146</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1656772243436251</v>
+        <v>0.2734319256640276</v>
       </c>
       <c r="M8">
-        <v>0.3752264659210809</v>
+        <v>0.3141658296618033</v>
       </c>
       <c r="N8">
-        <v>0.912293780069156</v>
+        <v>1.727346996114836</v>
       </c>
       <c r="O8">
-        <v>2.285443220432199</v>
+        <v>4.579926865676583</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.823371129023656</v>
+        <v>1.526502347138148</v>
       </c>
       <c r="C9">
-        <v>0.3739205143266986</v>
+        <v>0.1739620133618018</v>
       </c>
       <c r="D9">
-        <v>0.05480222687452141</v>
+        <v>0.1199588316441051</v>
       </c>
       <c r="E9">
-        <v>0.04194773441432975</v>
+        <v>0.1232336408117707</v>
       </c>
       <c r="F9">
-        <v>0.9451955790370761</v>
+        <v>1.746891606093897</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0595182161156238</v>
+        <v>0.1593571148721984</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2033126277737551</v>
+        <v>0.2810040988719038</v>
       </c>
       <c r="M9">
-        <v>0.4950663475620587</v>
+        <v>0.3456458571932899</v>
       </c>
       <c r="N9">
-        <v>0.8267577119315419</v>
+        <v>1.68974283305478</v>
       </c>
       <c r="O9">
-        <v>2.516891356997462</v>
+        <v>4.558976016853478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.350894725248224</v>
+        <v>1.672245089164392</v>
       </c>
       <c r="C10">
-        <v>0.428252067943248</v>
+        <v>0.1915536162411797</v>
       </c>
       <c r="D10">
-        <v>0.05928855641202091</v>
+        <v>0.1205278997622869</v>
       </c>
       <c r="E10">
-        <v>0.04076756575951723</v>
+        <v>0.1222088324084538</v>
       </c>
       <c r="F10">
-        <v>1.018604254084337</v>
+        <v>1.746217339311045</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05664872341321336</v>
+        <v>0.1578407677485405</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2317457392253317</v>
+        <v>0.287000508617993</v>
       </c>
       <c r="M10">
-        <v>0.5844254826753073</v>
+        <v>0.3692734304709333</v>
       </c>
       <c r="N10">
-        <v>0.7701606605174049</v>
+        <v>1.664962582492919</v>
       </c>
       <c r="O10">
-        <v>2.714099460588244</v>
+        <v>4.555254460797357</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.592729425144114</v>
+        <v>1.738936320919834</v>
       </c>
       <c r="C11">
-        <v>0.4530169125962971</v>
+        <v>0.1995043562102978</v>
       </c>
       <c r="D11">
-        <v>0.06137504907156455</v>
+        <v>0.1208161000317602</v>
       </c>
       <c r="E11">
-        <v>0.04027147441509538</v>
+        <v>0.1217712239271407</v>
       </c>
       <c r="F11">
-        <v>1.054327018623539</v>
+        <v>1.746823906355829</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05539192629768364</v>
+        <v>0.1571842709710776</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2448831474993796</v>
+        <v>0.2898215493165566</v>
       </c>
       <c r="M11">
-        <v>0.625448339837547</v>
+        <v>0.380128778997296</v>
       </c>
       <c r="N11">
-        <v>0.7458832852658759</v>
+        <v>1.654306541597798</v>
       </c>
       <c r="O11">
-        <v>2.810645483181418</v>
+        <v>4.556097645375218</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.684616429920709</v>
+        <v>1.764245798480147</v>
       </c>
       <c r="C12">
-        <v>0.4624051009520542</v>
+        <v>0.202507546632944</v>
       </c>
       <c r="D12">
-        <v>0.0621721378266713</v>
+        <v>0.1209294228335267</v>
       </c>
       <c r="E12">
-        <v>0.04008962236545965</v>
+        <v>0.1216096098853372</v>
       </c>
       <c r="F12">
-        <v>1.068216736037698</v>
+        <v>1.747184865425695</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05492307778785444</v>
+        <v>0.156940446719628</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2498900096963155</v>
+        <v>0.290903117653869</v>
       </c>
       <c r="M12">
-        <v>0.641043827731913</v>
+        <v>0.384254598846816</v>
       </c>
       <c r="N12">
-        <v>0.7369116478434137</v>
+        <v>1.650359984906459</v>
       </c>
       <c r="O12">
-        <v>2.848271461922309</v>
+        <v>4.556781690891029</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.66481245655217</v>
+        <v>1.758792528258425</v>
       </c>
       <c r="C13">
-        <v>0.4603826752896509</v>
+        <v>0.2018610952590336</v>
       </c>
       <c r="D13">
-        <v>0.06200015312272456</v>
+        <v>0.1209048309679446</v>
       </c>
       <c r="E13">
-        <v>0.04012851791130601</v>
+        <v>0.1216442342445996</v>
       </c>
       <c r="F13">
-        <v>1.065208766614475</v>
+        <v>1.747101289411404</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05502373659986182</v>
+        <v>0.1569927463617002</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2488102215888546</v>
+        <v>0.2906695926745329</v>
       </c>
       <c r="M13">
-        <v>0.6376822225413008</v>
+        <v>0.3833653606980079</v>
       </c>
       <c r="N13">
-        <v>0.7388338171659399</v>
+        <v>1.651206003743475</v>
       </c>
       <c r="O13">
-        <v>2.840119228558848</v>
+        <v>4.556618146208308</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.600282571649302</v>
+        <v>1.741017453675965</v>
       </c>
       <c r="C14">
-        <v>0.4537890590949587</v>
+        <v>0.1997515832434544</v>
       </c>
       <c r="D14">
-        <v>0.0614404836690241</v>
+        <v>0.1208253394109917</v>
       </c>
       <c r="E14">
-        <v>0.04025639209342202</v>
+        <v>0.121757845761012</v>
       </c>
       <c r="F14">
-        <v>1.055462309313782</v>
+        <v>1.746850972297651</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05535321154511808</v>
+        <v>0.1571641157324986</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2452944066548497</v>
+        <v>0.2899102646248082</v>
       </c>
       <c r="M14">
-        <v>0.6267301226512885</v>
+        <v>0.380467910830049</v>
       </c>
       <c r="N14">
-        <v>0.7451406780695393</v>
+        <v>1.653980079298023</v>
       </c>
       <c r="O14">
-        <v>2.813719130471696</v>
+        <v>4.556146611760397</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.560797748470293</v>
+        <v>1.730136821615076</v>
       </c>
       <c r="C15">
-        <v>0.4497517175356904</v>
+        <v>0.1984584546973451</v>
       </c>
       <c r="D15">
-        <v>0.06109859177833243</v>
+        <v>0.1207771930065036</v>
       </c>
       <c r="E15">
-        <v>0.04033550542705377</v>
+        <v>0.1218279695460973</v>
       </c>
       <c r="F15">
-        <v>1.049540349737569</v>
+        <v>1.746714738516403</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05555594842668654</v>
+        <v>0.1572697061723969</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2431451243292884</v>
+        <v>0.2894468833427482</v>
       </c>
       <c r="M15">
-        <v>0.6200298212788837</v>
+        <v>0.3786951024844001</v>
       </c>
       <c r="N15">
-        <v>0.7490330039336257</v>
+        <v>1.655690825783644</v>
       </c>
       <c r="O15">
-        <v>2.79768971921311</v>
+        <v>4.555905286154967</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.335131215354295</v>
+        <v>1.667894428471016</v>
       </c>
       <c r="C16">
-        <v>0.4266348843413823</v>
+        <v>0.1910329631695618</v>
       </c>
       <c r="D16">
-        <v>0.05915315246328134</v>
+        <v>0.1205096528104406</v>
       </c>
       <c r="E16">
-        <v>0.04080081905472532</v>
+        <v>0.1222380053303009</v>
       </c>
       <c r="F16">
-        <v>1.016318846735288</v>
+        <v>1.746196070959428</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05673184274570753</v>
+        <v>0.1578843404151602</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2308915002191156</v>
+        <v>0.2868180141341412</v>
       </c>
       <c r="M16">
-        <v>0.5817526662382306</v>
+        <v>0.3685661398856155</v>
       </c>
       <c r="N16">
-        <v>0.7717776793959601</v>
+        <v>1.665671386456538</v>
       </c>
       <c r="O16">
-        <v>2.707934466969192</v>
+        <v>4.555250395097033</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.197197612748653</v>
+        <v>1.629810149942898</v>
       </c>
       <c r="C17">
-        <v>0.41246824283823</v>
+        <v>0.1864643072160277</v>
       </c>
       <c r="D17">
-        <v>0.05797166414097177</v>
+        <v>0.1203530160377042</v>
       </c>
       <c r="E17">
-        <v>0.04109681652358788</v>
+        <v>0.1224968614991351</v>
       </c>
       <c r="F17">
-        <v>0.9965538782967087</v>
+        <v>1.746111755306018</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0574657143711601</v>
+        <v>0.1582699187598013</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2234282398902252</v>
+        <v>0.2852290938582343</v>
       </c>
       <c r="M17">
-        <v>0.5583714754628275</v>
+        <v>0.3623795827904956</v>
       </c>
       <c r="N17">
-        <v>0.7861142367366369</v>
+        <v>1.671952056578377</v>
       </c>
       <c r="O17">
-        <v>2.654680486853181</v>
+        <v>4.55549824659704</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.118034387140995</v>
+        <v>1.607942074555979</v>
       </c>
       <c r="C18">
-        <v>0.4043243831611107</v>
+        <v>0.1838316726948506</v>
       </c>
       <c r="D18">
-        <v>0.05729637229708118</v>
+        <v>0.1202656850031261</v>
       </c>
       <c r="E18">
-        <v>0.04127089510264792</v>
+        <v>0.1226484396630836</v>
       </c>
       <c r="F18">
-        <v>0.9854030348737837</v>
+        <v>1.746149226654069</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05789238184095513</v>
+        <v>0.1584948279738896</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2191545008925431</v>
+        <v>0.284323971865561</v>
       </c>
       <c r="M18">
-        <v>0.5449578605029117</v>
+        <v>0.3588313299505046</v>
       </c>
       <c r="N18">
-        <v>0.7944978389681481</v>
+        <v>1.675622571627642</v>
       </c>
       <c r="O18">
-        <v>2.624688226756518</v>
+        <v>4.555879514251558</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.091259491514677</v>
+        <v>1.600544317460844</v>
       </c>
       <c r="C19">
-        <v>0.4015676775878489</v>
+        <v>0.1829394766153882</v>
       </c>
       <c r="D19">
-        <v>0.05706845110486114</v>
+        <v>0.1202365915500039</v>
       </c>
       <c r="E19">
-        <v>0.04133048845369647</v>
+        <v>0.1227002239412522</v>
       </c>
       <c r="F19">
-        <v>0.9816640936676748</v>
+        <v>1.746176680802392</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05803762525218703</v>
+        <v>0.1585715171110542</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2177106553474459</v>
+        <v>0.2840190248484049</v>
       </c>
       <c r="M19">
-        <v>0.5404219720707388</v>
+        <v>0.3576316935522215</v>
       </c>
       <c r="N19">
-        <v>0.7973597075734276</v>
+        <v>1.676875313843624</v>
       </c>
       <c r="O19">
-        <v>2.614640505129472</v>
+        <v>4.55604960190999</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.211862731244366</v>
+        <v>1.633860468011221</v>
       </c>
       <c r="C20">
-        <v>0.4139758263980866</v>
+        <v>0.1869511528948919</v>
       </c>
       <c r="D20">
-        <v>0.05809699084927189</v>
+        <v>0.1203694046191401</v>
       </c>
       <c r="E20">
-        <v>0.0410649098215341</v>
+        <v>0.1224690273975657</v>
       </c>
       <c r="F20">
-        <v>0.9986351960496052</v>
+        <v>1.746111834010946</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05738711948525932</v>
+        <v>0.1582285489338839</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2242207376930878</v>
+        <v>0.285397328909653</v>
       </c>
       <c r="M20">
-        <v>0.5608568075404676</v>
+        <v>0.363037109828241</v>
       </c>
       <c r="N20">
-        <v>0.7845737718813837</v>
+        <v>1.671277461745198</v>
       </c>
       <c r="O20">
-        <v>2.66028284755356</v>
+        <v>4.555447156376317</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.619227815644877</v>
+        <v>1.746236943879069</v>
       </c>
       <c r="C21">
-        <v>0.4557254580367669</v>
+        <v>0.200371404935737</v>
       </c>
       <c r="D21">
-        <v>0.06160467926091684</v>
+        <v>0.1208485745938503</v>
       </c>
       <c r="E21">
-        <v>0.04021866812862385</v>
+        <v>0.1217243641539145</v>
       </c>
       <c r="F21">
-        <v>1.058315019578203</v>
+        <v>1.746920934519537</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0552562440427109</v>
+        <v>0.1571136508412865</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2463261944917434</v>
+        <v>0.2901329375326753</v>
       </c>
       <c r="M21">
-        <v>0.6299453019841792</v>
+        <v>0.3813185533891996</v>
       </c>
       <c r="N21">
-        <v>0.7432820969968361</v>
+        <v>1.653162860092749</v>
       </c>
       <c r="O21">
-        <v>2.821443852068654</v>
+        <v>4.556275213204714</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.887289937749756</v>
+        <v>1.820001126835393</v>
       </c>
       <c r="C22">
-        <v>0.4830728675128171</v>
+        <v>0.2090980564125857</v>
       </c>
       <c r="D22">
-        <v>0.06393805361015836</v>
+        <v>0.121186134769502</v>
       </c>
       <c r="E22">
-        <v>0.03970068674432348</v>
+        <v>0.121261569406264</v>
       </c>
       <c r="F22">
-        <v>1.099445067459357</v>
+        <v>1.748214812819171</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05390486857950938</v>
+        <v>0.1564128383781567</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2609614320752911</v>
+        <v>0.293305413134604</v>
       </c>
       <c r="M22">
-        <v>0.6754581607328447</v>
+        <v>0.3933546321384469</v>
       </c>
       <c r="N22">
-        <v>0.7175930862073798</v>
+        <v>1.641840664693035</v>
       </c>
       <c r="O22">
-        <v>2.93302902128562</v>
+        <v>4.558942463405515</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.744038446373395</v>
+        <v>1.78060301780647</v>
       </c>
       <c r="C23">
-        <v>0.4684702672261665</v>
+        <v>0.2044445735252225</v>
       </c>
       <c r="D23">
-        <v>0.06268879964861185</v>
+        <v>0.1210037502182999</v>
       </c>
       <c r="E23">
-        <v>0.03997388287833914</v>
+        <v>0.1215063898282729</v>
       </c>
       <c r="F23">
-        <v>1.077289091294503</v>
+        <v>1.747454261913376</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05462231475099433</v>
+        <v>0.1567843316960298</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2531321389118375</v>
+        <v>0.291605148877494</v>
       </c>
       <c r="M23">
-        <v>0.6511315999705261</v>
+        <v>0.3869227745812935</v>
       </c>
       <c r="N23">
-        <v>0.7311814306713842</v>
+        <v>1.647836255007341</v>
       </c>
       <c r="O23">
-        <v>2.872872268601441</v>
+        <v>4.557324347926027</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.205232208687619</v>
+        <v>1.632029234738354</v>
       </c>
       <c r="C24">
-        <v>0.4132942458324464</v>
+        <v>0.1867310688079442</v>
       </c>
       <c r="D24">
-        <v>0.05804031833622503</v>
+        <v>0.1203619868627541</v>
       </c>
       <c r="E24">
-        <v>0.0410793226869588</v>
+        <v>0.1224816026023685</v>
       </c>
       <c r="F24">
-        <v>0.9976935730744003</v>
+        <v>1.746111530706642</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05742263742962805</v>
+        <v>0.1582472421543279</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2238623967303397</v>
+        <v>0.2853212437653809</v>
       </c>
       <c r="M24">
-        <v>0.5597331005550075</v>
+        <v>0.3627398154166244</v>
       </c>
       <c r="N24">
-        <v>0.7852697766303152</v>
+        <v>1.671582260183563</v>
       </c>
       <c r="O24">
-        <v>2.657748082374383</v>
+        <v>4.555469510493566</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.630494345655961</v>
+        <v>1.47318791948237</v>
       </c>
       <c r="C25">
-        <v>0.3539359692958328</v>
+        <v>0.1674387017929462</v>
       </c>
       <c r="D25">
-        <v>0.05318794777041091</v>
+        <v>0.1197754662600943</v>
       </c>
       <c r="E25">
-        <v>0.04241758860279976</v>
+        <v>0.1236364558885352</v>
       </c>
       <c r="F25">
-        <v>0.9200551832123267</v>
+        <v>1.747950084526238</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0606174042603338</v>
+        <v>0.1599451260515878</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1930042340406501</v>
+        <v>0.2788792273106608</v>
       </c>
       <c r="M25">
-        <v>0.4624432978016131</v>
+        <v>0.3370413301114041</v>
       </c>
       <c r="N25">
-        <v>0.8488371051145585</v>
+        <v>1.699415296726929</v>
       </c>
       <c r="O25">
-        <v>2.44980677621848</v>
+        <v>4.562594723743189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_108/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.357478060742892</v>
+        <v>2.211372508800991</v>
       </c>
       <c r="C2">
-        <v>0.1530760410253293</v>
+        <v>0.3102506154111779</v>
       </c>
       <c r="D2">
-        <v>0.1194354720369049</v>
+        <v>0.04973947733536477</v>
       </c>
       <c r="E2">
-        <v>0.1245758532212635</v>
+        <v>0.04352366513019934</v>
       </c>
       <c r="F2">
-        <v>1.752131314218971</v>
+        <v>0.8690219586562762</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1612990383297617</v>
+        <v>0.06311680066384229</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2744277187221442</v>
+        <v>0.1707977907192557</v>
       </c>
       <c r="M2">
-        <v>0.3184569435170275</v>
+        <v>0.3916617882977107</v>
       </c>
       <c r="N2">
-        <v>1.721821525170089</v>
+        <v>0.8997916637771297</v>
       </c>
       <c r="O2">
-        <v>4.575683049327665</v>
+        <v>2.314597014460077</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.279850709966922</v>
+        <v>1.929186241949452</v>
       </c>
       <c r="C3">
-        <v>0.1432450312874352</v>
+        <v>0.2806055363769389</v>
       </c>
       <c r="D3">
-        <v>0.1192628499365505</v>
+        <v>0.04747327911668719</v>
       </c>
       <c r="E3">
-        <v>0.1252683450860923</v>
+        <v>0.04434637060458879</v>
       </c>
       <c r="F3">
-        <v>1.756729400771889</v>
+        <v>0.837834059168955</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1622816523651021</v>
+        <v>0.06490116432974435</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2715942972574297</v>
+        <v>0.1560239211479413</v>
       </c>
       <c r="M3">
-        <v>0.3060752846758632</v>
+        <v>0.3441052128441768</v>
       </c>
       <c r="N3">
-        <v>1.738201905344958</v>
+        <v>0.9367560462040956</v>
       </c>
       <c r="O3">
-        <v>4.589442455110543</v>
+        <v>2.232836678411104</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.232583085629301</v>
+        <v>1.756636873329853</v>
       </c>
       <c r="C4">
-        <v>0.137161272822425</v>
+        <v>0.262368883492087</v>
       </c>
       <c r="D4">
-        <v>0.1191855449300228</v>
+        <v>0.04611477563690158</v>
       </c>
       <c r="E4">
-        <v>0.1257211810430059</v>
+        <v>0.04488688996455137</v>
       </c>
       <c r="F4">
-        <v>1.760423353963681</v>
+        <v>0.820229876946506</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1629171745431517</v>
+        <v>0.06604100327145668</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2699455850557086</v>
+        <v>0.1470750562751633</v>
       </c>
       <c r="M4">
-        <v>0.2985791830747075</v>
+        <v>0.315073130762265</v>
       </c>
       <c r="N4">
-        <v>1.748849901457898</v>
+        <v>0.9606035388183933</v>
       </c>
       <c r="O4">
-        <v>4.600302111763853</v>
+        <v>2.187110376648235</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.213422029167134</v>
+        <v>1.686474250383242</v>
       </c>
       <c r="C5">
-        <v>0.134670275636779</v>
+        <v>0.2549266617844381</v>
       </c>
       <c r="D5">
-        <v>0.1191612859695432</v>
+        <v>0.04556919254308411</v>
       </c>
       <c r="E5">
-        <v>0.1259126794800283</v>
+        <v>0.04511595236538968</v>
       </c>
       <c r="F5">
-        <v>1.762147729475615</v>
+        <v>0.8134263779657616</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1631842639412078</v>
+        <v>0.06651655635141474</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2692967146944909</v>
+        <v>0.1434572491012958</v>
       </c>
       <c r="M5">
-        <v>0.2955514316987973</v>
+        <v>0.3032797438000117</v>
       </c>
       <c r="N5">
-        <v>1.753337581229914</v>
+        <v>0.9706041465202198</v>
       </c>
       <c r="O5">
-        <v>4.605333945373928</v>
+        <v>2.169546648137015</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.21024648288298</v>
+        <v>1.674832262054224</v>
       </c>
       <c r="C6">
-        <v>0.1342559373998284</v>
+        <v>0.2536901888862815</v>
       </c>
       <c r="D6">
-        <v>0.1191576961644358</v>
+        <v>0.04547907562715281</v>
       </c>
       <c r="E6">
-        <v>0.1259448986474507</v>
+        <v>0.04515451646650837</v>
       </c>
       <c r="F6">
-        <v>1.762447294712246</v>
+        <v>0.812318514096269</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1632291040967639</v>
+        <v>0.06659618774034337</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.269190362109299</v>
+        <v>0.1428582103281002</v>
       </c>
       <c r="M6">
-        <v>0.2950503120599066</v>
+        <v>0.3013235864132469</v>
       </c>
       <c r="N6">
-        <v>1.75409173059937</v>
+        <v>0.9722816101199427</v>
       </c>
       <c r="O6">
-        <v>4.606206107380871</v>
+        <v>2.166693276288839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.232324262673529</v>
+        <v>1.755690052076886</v>
       </c>
       <c r="C7">
-        <v>0.1371277260433175</v>
+        <v>0.2622685606728083</v>
       </c>
       <c r="D7">
-        <v>0.1191851883959103</v>
+        <v>0.04610738558990946</v>
       </c>
       <c r="E7">
-        <v>0.1257237354430485</v>
+        <v>0.04488994369153465</v>
       </c>
       <c r="F7">
-        <v>1.76044572238289</v>
+        <v>0.820136646497204</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1629207437530522</v>
+        <v>0.06604737204856415</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2699367409234128</v>
+        <v>0.147026150490646</v>
       </c>
       <c r="M7">
-        <v>0.2985382402327303</v>
+        <v>0.3149139356270467</v>
       </c>
       <c r="N7">
-        <v>1.74890982235754</v>
+        <v>0.960737275314667</v>
       </c>
       <c r="O7">
-        <v>4.60036751728677</v>
+        <v>2.186869244089053</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.330630759738483</v>
+        <v>2.11390968970403</v>
       </c>
       <c r="C8">
-        <v>0.1496962338598564</v>
+        <v>0.300034905595524</v>
       </c>
       <c r="D8">
-        <v>0.1193700161124092</v>
+        <v>0.04895108633891354</v>
       </c>
       <c r="E8">
-        <v>0.1248088949287585</v>
+        <v>0.04379993120740888</v>
       </c>
       <c r="F8">
-        <v>1.753536082980446</v>
+        <v>0.8579363753168749</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1616311702708146</v>
+        <v>0.06372283038100246</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2734319256640276</v>
+        <v>0.1656772243436322</v>
       </c>
       <c r="M8">
-        <v>0.3141658296618033</v>
+        <v>0.3752264659210809</v>
       </c>
       <c r="N8">
-        <v>1.727346996114836</v>
+        <v>0.9122937800691453</v>
       </c>
       <c r="O8">
-        <v>4.579926865676583</v>
+        <v>2.285443220432313</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.526502347138148</v>
+        <v>2.823371129023656</v>
       </c>
       <c r="C9">
-        <v>0.1739620133618018</v>
+        <v>0.3739205143268123</v>
       </c>
       <c r="D9">
-        <v>0.1199588316441051</v>
+        <v>0.05480222687438641</v>
       </c>
       <c r="E9">
-        <v>0.1232336408117707</v>
+        <v>0.04194773441435729</v>
       </c>
       <c r="F9">
-        <v>1.746891606093897</v>
+        <v>0.9451955790370619</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1593571148721984</v>
+        <v>0.05951821611558161</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2810040988719038</v>
+        <v>0.2033126277738688</v>
       </c>
       <c r="M9">
-        <v>0.3456458571932899</v>
+        <v>0.4950663475620587</v>
       </c>
       <c r="N9">
-        <v>1.68974283305478</v>
+        <v>0.8267577119315348</v>
       </c>
       <c r="O9">
-        <v>4.558976016853478</v>
+        <v>2.516891356997462</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.672245089164392</v>
+        <v>3.350894725248054</v>
       </c>
       <c r="C10">
-        <v>0.1915536162411797</v>
+        <v>0.4282520679432196</v>
       </c>
       <c r="D10">
-        <v>0.1205278997622869</v>
+        <v>0.0592885564121417</v>
       </c>
       <c r="E10">
-        <v>0.1222088324084538</v>
+        <v>0.04076756575951812</v>
       </c>
       <c r="F10">
-        <v>1.746217339311045</v>
+        <v>1.018604254084323</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1578407677485405</v>
+        <v>0.05664872341327065</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.287000508617993</v>
+        <v>0.2317457392252322</v>
       </c>
       <c r="M10">
-        <v>0.3692734304709333</v>
+        <v>0.5844254826753001</v>
       </c>
       <c r="N10">
-        <v>1.664962582492919</v>
+        <v>0.7701606605174049</v>
       </c>
       <c r="O10">
-        <v>4.555254460797357</v>
+        <v>2.714099460588244</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.738936320919834</v>
+        <v>3.592729425143943</v>
       </c>
       <c r="C11">
-        <v>0.1995043562102978</v>
+        <v>0.4530169125961834</v>
       </c>
       <c r="D11">
-        <v>0.1208161000317602</v>
+        <v>0.06137504907167113</v>
       </c>
       <c r="E11">
-        <v>0.1217712239271407</v>
+        <v>0.04027147441508028</v>
       </c>
       <c r="F11">
-        <v>1.746823906355829</v>
+        <v>1.054327018623539</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1571842709710776</v>
+        <v>0.05539192629765699</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2898215493165566</v>
+        <v>0.2448831474992659</v>
       </c>
       <c r="M11">
-        <v>0.380128778997296</v>
+        <v>0.625448339837547</v>
       </c>
       <c r="N11">
-        <v>1.654306541597798</v>
+        <v>0.7458832852658333</v>
       </c>
       <c r="O11">
-        <v>4.556097645375218</v>
+        <v>2.810645483181418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.764245798480147</v>
+        <v>3.684616429920595</v>
       </c>
       <c r="C12">
-        <v>0.202507546632944</v>
+        <v>0.46240510095231</v>
       </c>
       <c r="D12">
-        <v>0.1209294228335267</v>
+        <v>0.06217213782665709</v>
       </c>
       <c r="E12">
-        <v>0.1216096098853372</v>
+        <v>0.04008962236545877</v>
       </c>
       <c r="F12">
-        <v>1.747184865425695</v>
+        <v>1.068216736037726</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.156940446719628</v>
+        <v>0.05492307778785044</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.290903117653869</v>
+        <v>0.2498900096963297</v>
       </c>
       <c r="M12">
-        <v>0.384254598846816</v>
+        <v>0.641043827731913</v>
       </c>
       <c r="N12">
-        <v>1.650359984906459</v>
+        <v>0.7369116478434634</v>
       </c>
       <c r="O12">
-        <v>4.556781690891029</v>
+        <v>2.848271461922394</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.758792528258425</v>
+        <v>3.664812456552113</v>
       </c>
       <c r="C13">
-        <v>0.2018610952590336</v>
+        <v>0.4603826752895088</v>
       </c>
       <c r="D13">
-        <v>0.1209048309679446</v>
+        <v>0.06200015312285245</v>
       </c>
       <c r="E13">
-        <v>0.1216442342445996</v>
+        <v>0.04012851791128913</v>
       </c>
       <c r="F13">
-        <v>1.747101289411404</v>
+        <v>1.065208766614461</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1569927463617002</v>
+        <v>0.05502373659985027</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2906695926745329</v>
+        <v>0.2488102215889114</v>
       </c>
       <c r="M13">
-        <v>0.3833653606980079</v>
+        <v>0.6376822225413008</v>
       </c>
       <c r="N13">
-        <v>1.651206003743475</v>
+        <v>0.7388338171659328</v>
       </c>
       <c r="O13">
-        <v>4.556618146208308</v>
+        <v>2.840119228558819</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.741017453675965</v>
+        <v>3.600282571649416</v>
       </c>
       <c r="C14">
-        <v>0.1997515832434544</v>
+        <v>0.4537890590949587</v>
       </c>
       <c r="D14">
-        <v>0.1208253394109917</v>
+        <v>0.06144048366904542</v>
       </c>
       <c r="E14">
-        <v>0.121757845761012</v>
+        <v>0.04025639209342113</v>
       </c>
       <c r="F14">
-        <v>1.746850972297651</v>
+        <v>1.055462309313796</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1571641157324986</v>
+        <v>0.05535321154512163</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2899102646248082</v>
+        <v>0.2452944066547644</v>
       </c>
       <c r="M14">
-        <v>0.380467910830049</v>
+        <v>0.6267301226512885</v>
       </c>
       <c r="N14">
-        <v>1.653980079298023</v>
+        <v>0.7451406780696104</v>
       </c>
       <c r="O14">
-        <v>4.556146611760397</v>
+        <v>2.813719130471782</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.730136821615076</v>
+        <v>3.560797748470236</v>
       </c>
       <c r="C15">
-        <v>0.1984584546973451</v>
+        <v>0.4497517175358041</v>
       </c>
       <c r="D15">
-        <v>0.1207771930065036</v>
+        <v>0.06109859177827559</v>
       </c>
       <c r="E15">
-        <v>0.1218279695460973</v>
+        <v>0.04033550542705289</v>
       </c>
       <c r="F15">
-        <v>1.746714738516403</v>
+        <v>1.049540349737569</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1572697061723969</v>
+        <v>0.05555594842660794</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2894468833427482</v>
+        <v>0.2431451243293878</v>
       </c>
       <c r="M15">
-        <v>0.3786951024844001</v>
+        <v>0.6200298212788837</v>
       </c>
       <c r="N15">
-        <v>1.655690825783644</v>
+        <v>0.749033003933647</v>
       </c>
       <c r="O15">
-        <v>4.555905286154967</v>
+        <v>2.79768971921311</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.667894428471016</v>
+        <v>3.335131215354409</v>
       </c>
       <c r="C16">
-        <v>0.1910329631695618</v>
+        <v>0.4266348843414107</v>
       </c>
       <c r="D16">
-        <v>0.1205096528104406</v>
+        <v>0.05915315246351582</v>
       </c>
       <c r="E16">
-        <v>0.1222380053303009</v>
+        <v>0.0408008190547271</v>
       </c>
       <c r="F16">
-        <v>1.746196070959428</v>
+        <v>1.016318846735302</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1578843404151602</v>
+        <v>0.05673184274562049</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2868180141341412</v>
+        <v>0.2308915002191299</v>
       </c>
       <c r="M16">
-        <v>0.3685661398856155</v>
+        <v>0.5817526662382306</v>
       </c>
       <c r="N16">
-        <v>1.665671386456538</v>
+        <v>0.771777679396024</v>
       </c>
       <c r="O16">
-        <v>4.555250395097033</v>
+        <v>2.707934466969363</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.629810149942898</v>
+        <v>3.197197612748596</v>
       </c>
       <c r="C17">
-        <v>0.1864643072160277</v>
+        <v>0.4124682428383437</v>
       </c>
       <c r="D17">
-        <v>0.1203530160377042</v>
+        <v>0.05797166414107835</v>
       </c>
       <c r="E17">
-        <v>0.1224968614991351</v>
+        <v>0.04109681652357455</v>
       </c>
       <c r="F17">
-        <v>1.746111755306018</v>
+        <v>0.9965538782966945</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1582699187598013</v>
+        <v>0.057465714371157</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2852290938582343</v>
+        <v>0.2234282398901968</v>
       </c>
       <c r="M17">
-        <v>0.3623795827904956</v>
+        <v>0.5583714754628133</v>
       </c>
       <c r="N17">
-        <v>1.671952056578377</v>
+        <v>0.7861142367366298</v>
       </c>
       <c r="O17">
-        <v>4.55549824659704</v>
+        <v>2.654680486853124</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.607942074555979</v>
+        <v>3.118034387140995</v>
       </c>
       <c r="C18">
-        <v>0.1838316726948506</v>
+        <v>0.404324383161395</v>
       </c>
       <c r="D18">
-        <v>0.1202656850031261</v>
+        <v>0.05729637229701012</v>
       </c>
       <c r="E18">
-        <v>0.1226484396630836</v>
+        <v>0.04127089510259729</v>
       </c>
       <c r="F18">
-        <v>1.746149226654069</v>
+        <v>0.9854030348737695</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1584948279738896</v>
+        <v>0.05789238184103196</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.284323971865561</v>
+        <v>0.2191545008925573</v>
       </c>
       <c r="M18">
-        <v>0.3588313299505046</v>
+        <v>0.5449578605028975</v>
       </c>
       <c r="N18">
-        <v>1.675622571627642</v>
+        <v>0.7944978389681339</v>
       </c>
       <c r="O18">
-        <v>4.555879514251558</v>
+        <v>2.62468822675649</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.600544317460844</v>
+        <v>3.091259491514847</v>
       </c>
       <c r="C19">
-        <v>0.1829394766153882</v>
+        <v>0.4015676775876216</v>
       </c>
       <c r="D19">
-        <v>0.1202365915500039</v>
+        <v>0.05706845110475456</v>
       </c>
       <c r="E19">
-        <v>0.1227002239412522</v>
+        <v>0.04133048845368403</v>
       </c>
       <c r="F19">
-        <v>1.746176680802392</v>
+        <v>0.9816640936676748</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1585715171110542</v>
+        <v>0.05803762525209866</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2840190248484049</v>
+        <v>0.2177106553473465</v>
       </c>
       <c r="M19">
-        <v>0.3576316935522215</v>
+        <v>0.5404219720707388</v>
       </c>
       <c r="N19">
-        <v>1.676875313843624</v>
+        <v>0.7973597075733707</v>
       </c>
       <c r="O19">
-        <v>4.55604960190999</v>
+        <v>2.614640505129501</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.633860468011221</v>
+        <v>3.211862731244423</v>
       </c>
       <c r="C20">
-        <v>0.1869511528948919</v>
+        <v>0.4139758263984277</v>
       </c>
       <c r="D20">
-        <v>0.1203694046191401</v>
+        <v>0.05809699084926478</v>
       </c>
       <c r="E20">
-        <v>0.1224690273975657</v>
+        <v>0.0410649098215643</v>
       </c>
       <c r="F20">
-        <v>1.746111834010946</v>
+        <v>0.9986351960496194</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1582285489338839</v>
+        <v>0.0573871194854032</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.285397328909653</v>
+        <v>0.2242207376932299</v>
       </c>
       <c r="M20">
-        <v>0.363037109828241</v>
+        <v>0.5608568075404747</v>
       </c>
       <c r="N20">
-        <v>1.671277461745198</v>
+        <v>0.7845737718814405</v>
       </c>
       <c r="O20">
-        <v>4.555447156376317</v>
+        <v>2.660282847553503</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.746236943879069</v>
+        <v>3.619227815644877</v>
       </c>
       <c r="C21">
-        <v>0.200371404935737</v>
+        <v>0.4557254580371364</v>
       </c>
       <c r="D21">
-        <v>0.1208485745938503</v>
+        <v>0.06160467926097368</v>
       </c>
       <c r="E21">
-        <v>0.1217243641539145</v>
+        <v>0.04021866812862473</v>
       </c>
       <c r="F21">
-        <v>1.746920934519537</v>
+        <v>1.058315019578231</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1571136508412865</v>
+        <v>0.0552562440426847</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2901329375326753</v>
+        <v>0.2463261944916866</v>
       </c>
       <c r="M21">
-        <v>0.3813185533891996</v>
+        <v>0.6299453019841792</v>
       </c>
       <c r="N21">
-        <v>1.653162860092749</v>
+        <v>0.7432820969968006</v>
       </c>
       <c r="O21">
-        <v>4.556275213204714</v>
+        <v>2.821443852068654</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.820001126835393</v>
+        <v>3.887289937749699</v>
       </c>
       <c r="C22">
-        <v>0.2090980564125857</v>
+        <v>0.4830728675127034</v>
       </c>
       <c r="D22">
-        <v>0.121186134769502</v>
+        <v>0.06393805361015836</v>
       </c>
       <c r="E22">
-        <v>0.121261569406264</v>
+        <v>0.03970068674432436</v>
       </c>
       <c r="F22">
-        <v>1.748214812819171</v>
+        <v>1.099445067459342</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1564128383781567</v>
+        <v>0.05390486857955823</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.293305413134604</v>
+        <v>0.2609614320753337</v>
       </c>
       <c r="M22">
-        <v>0.3933546321384469</v>
+        <v>0.6754581607328447</v>
       </c>
       <c r="N22">
-        <v>1.641840664693035</v>
+        <v>0.7175930862073869</v>
       </c>
       <c r="O22">
-        <v>4.558942463405515</v>
+        <v>2.93302902128562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.78060301780647</v>
+        <v>3.744038446373281</v>
       </c>
       <c r="C23">
-        <v>0.2044445735252225</v>
+        <v>0.4684702672262802</v>
       </c>
       <c r="D23">
-        <v>0.1210037502182999</v>
+        <v>0.06268879964860474</v>
       </c>
       <c r="E23">
-        <v>0.1215063898282729</v>
+        <v>0.03997388287833736</v>
       </c>
       <c r="F23">
-        <v>1.747454261913376</v>
+        <v>1.077289091294517</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1567843316960298</v>
+        <v>0.05462231475114532</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.291605148877494</v>
+        <v>0.2531321389118517</v>
       </c>
       <c r="M23">
-        <v>0.3869227745812935</v>
+        <v>0.6511315999705332</v>
       </c>
       <c r="N23">
-        <v>1.647836255007341</v>
+        <v>0.7311814306714481</v>
       </c>
       <c r="O23">
-        <v>4.557324347926027</v>
+        <v>2.872872268601441</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.632029234738354</v>
+        <v>3.205232208687676</v>
       </c>
       <c r="C24">
-        <v>0.1867310688079442</v>
+        <v>0.413294245832418</v>
       </c>
       <c r="D24">
-        <v>0.1203619868627541</v>
+        <v>0.05804031833621792</v>
       </c>
       <c r="E24">
-        <v>0.1224816026023685</v>
+        <v>0.04107932268695613</v>
       </c>
       <c r="F24">
-        <v>1.746111530706642</v>
+        <v>0.9976935730744003</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1582472421543279</v>
+        <v>0.05742263742968357</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2853212437653809</v>
+        <v>0.2238623967303255</v>
       </c>
       <c r="M24">
-        <v>0.3627398154166244</v>
+        <v>0.5597331005550146</v>
       </c>
       <c r="N24">
-        <v>1.671582260183563</v>
+        <v>0.785269776630372</v>
       </c>
       <c r="O24">
-        <v>4.555469510493566</v>
+        <v>2.657748082374411</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.47318791948237</v>
+        <v>2.630494345656075</v>
       </c>
       <c r="C25">
-        <v>0.1674387017929462</v>
+        <v>0.3539359692960602</v>
       </c>
       <c r="D25">
-        <v>0.1197754662600943</v>
+        <v>0.05318794777047486</v>
       </c>
       <c r="E25">
-        <v>0.1236364558885352</v>
+        <v>0.04241758860281308</v>
       </c>
       <c r="F25">
-        <v>1.747950084526238</v>
+        <v>0.9200551832123267</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1599451260515878</v>
+        <v>0.06061740426024098</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2788792273106608</v>
+        <v>0.1930042340406359</v>
       </c>
       <c r="M25">
-        <v>0.3370413301114041</v>
+        <v>0.4624432978015989</v>
       </c>
       <c r="N25">
-        <v>1.699415296726929</v>
+        <v>0.848837105114562</v>
       </c>
       <c r="O25">
-        <v>4.562594723743189</v>
+        <v>2.44980677621848</v>
       </c>
     </row>
   </sheetData>
